--- a/2024/shuffle-architecute/Teste10/content/results/metrics_1_5.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_1_5.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_0</t>
+          <t>model_1_5_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9369907995017548</v>
+        <v>0.9468277193862025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7512739282786448</v>
+        <v>0.7644216377978357</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9740628132774319</v>
+        <v>0.9579424775135488</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.466339622924652</v>
+        <v>0.9692127637715836</v>
       </c>
       <c r="F2" t="n">
-        <v>0.910262930856056</v>
+        <v>0.969017056211626</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2644361257553101</v>
+        <v>0.223152682185173</v>
       </c>
       <c r="H2" t="n">
-        <v>1.663232326507568</v>
+        <v>1.575313568115234</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3733604848384857</v>
+        <v>0.03370615839958191</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9531267285346985</v>
+        <v>0.1874393075704575</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6632435917854309</v>
+        <v>0.1105726286768913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_1</t>
+          <t>model_1_5_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9366736712240723</v>
+        <v>0.9459039583653129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7508626566745328</v>
+        <v>0.7640057563405985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.974156187217758</v>
+        <v>0.9567338415001632</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.508126138095937</v>
+        <v>0.9693132104296122</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9092614078626503</v>
+        <v>0.9689670108320011</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2657670378684998</v>
+        <v>0.2270295023918152</v>
       </c>
       <c r="H3" t="n">
-        <v>1.665982604026794</v>
+        <v>1.578094720840454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3720164000988007</v>
+        <v>0.03467479720711708</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9692752361297607</v>
+        <v>0.1868277788162231</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6706457734107971</v>
+        <v>0.1107512265443802</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_2</t>
+          <t>model_1_5_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9363498280592009</v>
+        <v>0.9449591408531679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7504487863013147</v>
+        <v>0.7635774052763437</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9742429691475059</v>
+        <v>0.9555075257337566</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.549790580250807</v>
+        <v>0.9694054452788387</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9082566562372359</v>
+        <v>0.9689079830571791</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2671261429786682</v>
+        <v>0.2309947162866592</v>
       </c>
       <c r="H4" t="n">
-        <v>1.668750047683716</v>
+        <v>1.580958962440491</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3707671761512756</v>
+        <v>0.0356576032936573</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9853766560554504</v>
+        <v>0.186266228556633</v>
       </c>
       <c r="K4" t="n">
-        <v>0.678071916103363</v>
+        <v>0.1109618991613388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_3</t>
+          <t>model_1_5_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9360194924946212</v>
+        <v>0.9439930331129038</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7500325426528076</v>
+        <v>0.7631362017806577</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9743233025393919</v>
+        <v>0.9542666353179597</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.591327566045237</v>
+        <v>0.9694898416458789</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9072489569502392</v>
+        <v>0.968840624979128</v>
       </c>
       <c r="G5" t="n">
-        <v>0.268512487411499</v>
+        <v>0.2350492626428604</v>
       </c>
       <c r="H5" t="n">
-        <v>1.671533584594727</v>
+        <v>1.583909273147583</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3696107864379883</v>
+        <v>0.0366520881652832</v>
       </c>
       <c r="J5" t="n">
-        <v>1.001428723335266</v>
+        <v>0.1857524067163467</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6855197548866272</v>
+        <v>0.1112022772431374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_4</t>
+          <t>model_1_5_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9356832017884387</v>
+        <v>0.9430053944126385</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7496141543801655</v>
+        <v>0.7626817117460543</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9743974198113856</v>
+        <v>0.9530132062463988</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.632716683280108</v>
+        <v>0.9695665721589179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.906239069158483</v>
+        <v>0.9687653430401286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2699238657951355</v>
+        <v>0.2391941696405411</v>
       </c>
       <c r="H6" t="n">
-        <v>1.674331188201904</v>
+        <v>1.58694851398468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3685438930988312</v>
+        <v>0.03765662387013435</v>
       </c>
       <c r="J6" t="n">
-        <v>1.017423748970032</v>
+        <v>0.1852852702140808</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6929838061332703</v>
+        <v>0.111470952630043</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_5</t>
+          <t>model_1_5_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9353412476986854</v>
+        <v>0.9419959553893756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.749193846322836</v>
+        <v>0.7622135398086434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9744655305251042</v>
+        <v>0.9517505230545159</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.673952857834081</v>
+        <v>0.9696361227314958</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9052273295076816</v>
+        <v>0.968682878458398</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2713589668273926</v>
+        <v>0.2434305548667908</v>
       </c>
       <c r="H7" t="n">
-        <v>1.677141904830933</v>
+        <v>1.590079188346863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3675634562969208</v>
+        <v>0.03866857662796974</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03335964679718</v>
+        <v>0.1848618239164352</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7004615068435669</v>
+        <v>0.1117652505636215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_6</t>
+          <t>model_1_5_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9349939716468771</v>
+        <v>0.940964598083581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7487718048368371</v>
+        <v>0.7617311756534765</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9745277317554649</v>
+        <v>0.9504824601039987</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.715021810553275</v>
+        <v>0.9696987955585438</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9042142101224346</v>
+        <v>0.9685940295454707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2728163599967957</v>
+        <v>0.2477589398622513</v>
       </c>
       <c r="H8" t="n">
-        <v>1.679964184761047</v>
+        <v>1.593304753303528</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3666680753231049</v>
+        <v>0.03968483954668045</v>
       </c>
       <c r="J8" t="n">
-        <v>1.049230933189392</v>
+        <v>0.1844802498817444</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7079495191574097</v>
+        <v>0.112082339823246</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_7</t>
+          <t>model_1_5_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9346417293592637</v>
+        <v>0.9399110341574241</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7483482516216995</v>
+        <v>0.7612341970238656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9745842743737005</v>
+        <v>0.9492127337141869</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.755915528590022</v>
+        <v>0.9697550991933637</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9032001595170321</v>
+        <v>0.9684994378407148</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2742946743965149</v>
+        <v>0.2521805167198181</v>
       </c>
       <c r="H9" t="n">
-        <v>1.682796359062195</v>
+        <v>1.596628069877625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3658541440963745</v>
+        <v>0.04070243611931801</v>
       </c>
       <c r="J9" t="n">
-        <v>1.065034508705139</v>
+        <v>0.1841374635696411</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7154443264007568</v>
+        <v>0.112419918179512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_8</t>
+          <t>model_1_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9342848056074011</v>
+        <v>0.9388350958250756</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7479233971176056</v>
+        <v>0.7607220956498528</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9746352824600526</v>
+        <v>0.9479461768142838</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.796624782440754</v>
+        <v>0.969805386540894</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9021855419777466</v>
+        <v>0.9684001226241747</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2757925987243652</v>
+        <v>0.2566960155963898</v>
       </c>
       <c r="H10" t="n">
-        <v>1.685637354850769</v>
+        <v>1.60005247592926</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3651199042797089</v>
+        <v>0.04171749204397202</v>
       </c>
       <c r="J10" t="n">
-        <v>1.080766677856445</v>
+        <v>0.1838313043117523</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7229433059692383</v>
+        <v>0.1127743571996689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_9</t>
+          <t>model_1_5_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9339235611325695</v>
+        <v>0.9377366364749448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7474974017496164</v>
+        <v>0.7601943225515739</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9746809904776823</v>
+        <v>0.9466875563130452</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.837141584377204</v>
+        <v>0.9698502240158556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9011707949888978</v>
+        <v>0.9682970168875938</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2773086428642273</v>
+        <v>0.2613059878349304</v>
       </c>
       <c r="H11" t="n">
-        <v>1.688485980033875</v>
+        <v>1.603581666946411</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3644619584083557</v>
+        <v>0.04272618889808655</v>
       </c>
       <c r="J11" t="n">
-        <v>1.096424579620361</v>
+        <v>0.183558315038681</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7304432988166809</v>
+        <v>0.1131423264741898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_10</t>
+          <t>model_1_5_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9335582469785715</v>
+        <v>0.9366155140564864</v>
       </c>
       <c r="C12" t="n">
-        <v>0.747070446053732</v>
+        <v>0.7596503540966774</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9747215260354739</v>
+        <v>0.9454423351301757</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.877455828646212</v>
+        <v>0.9698900709147712</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9001563073640232</v>
+        <v>0.9681912041399796</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2788418531417847</v>
+        <v>0.266011118888855</v>
       </c>
       <c r="H12" t="n">
-        <v>1.691341161727905</v>
+        <v>1.607219219207764</v>
       </c>
       <c r="I12" t="n">
-        <v>0.363878458738327</v>
+        <v>0.04372414574027061</v>
       </c>
       <c r="J12" t="n">
-        <v>1.112004160881042</v>
+        <v>0.1833157390356064</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7379413247108459</v>
+        <v>0.1135199442505836</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_11</t>
+          <t>model_1_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9331891858055975</v>
+        <v>0.9354715201348701</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7466427292337966</v>
+        <v>0.7590895594255186</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9747570570510972</v>
+        <v>0.9442168027119993</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.917558911640414</v>
+        <v>0.9699254251594329</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8991424652742898</v>
+        <v>0.9680837194495012</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2803907096385956</v>
+        <v>0.2708122432231903</v>
       </c>
       <c r="H13" t="n">
-        <v>1.694201231002808</v>
+        <v>1.610969305038452</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3633669912815094</v>
+        <v>0.0447063259780407</v>
       </c>
       <c r="J13" t="n">
-        <v>1.127502202987671</v>
+        <v>0.1831004768610001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7454346418380737</v>
+        <v>0.1139035373926163</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9328165633791534</v>
+        <v>0.9343046400123975</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7462143996345137</v>
+        <v>0.7585114196247288</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9747876982833791</v>
+        <v>0.9430178321575572</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.957450262363096</v>
+        <v>0.9699570123695093</v>
       </c>
       <c r="F14" t="n">
-        <v>0.898129396867982</v>
+        <v>0.9679760495584452</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2819544970989227</v>
+        <v>0.2757093608379364</v>
       </c>
       <c r="H14" t="n">
-        <v>1.697065591812134</v>
+        <v>1.614835262298584</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3629258871078491</v>
+        <v>0.04566721618175507</v>
       </c>
       <c r="J14" t="n">
-        <v>1.142918348312378</v>
+        <v>0.1829081624746323</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7529221177101135</v>
+        <v>0.114287793636322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_13</t>
+          <t>model_1_5_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9324406893368598</v>
+        <v>0.9331147055870825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7457856085021128</v>
+        <v>0.757915255245707</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9748136279700425</v>
+        <v>0.9418530276570112</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.99711864565135</v>
+        <v>0.9699854010630775</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8971175710973051</v>
+        <v>0.9678694497206082</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2835319638252258</v>
+        <v>0.2807032465934753</v>
       </c>
       <c r="H15" t="n">
-        <v>1.699932813644409</v>
+        <v>1.618821859359741</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3625526428222656</v>
+        <v>0.04660072550177574</v>
       </c>
       <c r="J15" t="n">
-        <v>1.158248424530029</v>
+        <v>0.182735338807106</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7604004740715027</v>
+        <v>0.1146682351827621</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_14</t>
+          <t>model_1_5_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9320617787545601</v>
+        <v>0.931901651964406</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7453564867870055</v>
+        <v>0.75730039857666</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9748349647131606</v>
+        <v>0.9407300915959531</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.036559846036341</v>
+        <v>0.9700110634436192</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8961072119552993</v>
+        <v>0.9677652929972527</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2851221859455109</v>
+        <v>0.2857941687107086</v>
       </c>
       <c r="H16" t="n">
-        <v>1.702802419662476</v>
+        <v>1.622933387756348</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3622455298900604</v>
+        <v>0.04750067740678787</v>
       </c>
       <c r="J16" t="n">
-        <v>1.173490643501282</v>
+        <v>0.1825791001319885</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7678680419921875</v>
+        <v>0.1150399446487427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_15</t>
+          <t>model_1_5_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9316801490930402</v>
+        <v>0.93066547662215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7449272096829525</v>
+        <v>0.7566662315427841</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9748519179500754</v>
+        <v>0.9396581722731508</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.075765617890265</v>
+        <v>0.9700349272633398</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8950987398961447</v>
+        <v>0.9676652771826663</v>
       </c>
       <c r="G17" t="n">
-        <v>0.286723792552948</v>
+        <v>0.2909821569919586</v>
       </c>
       <c r="H17" t="n">
-        <v>1.705672979354858</v>
+        <v>1.627174019813538</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3620014786720276</v>
+        <v>0.04835974797606468</v>
       </c>
       <c r="J17" t="n">
-        <v>1.188641786575317</v>
+        <v>0.1824338138103485</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7753216028213501</v>
+        <v>0.1153968870639801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_16</t>
+          <t>model_1_5_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9312959120374786</v>
+        <v>0.9294059890489698</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7444979259507498</v>
+        <v>0.7560120209619298</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9748645508437722</v>
+        <v>0.9386465413126975</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.114735004976704</v>
+        <v>0.9700573805723491</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8940922369576662</v>
+        <v>0.9675708563338021</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2883363366127014</v>
+        <v>0.296267956495285</v>
       </c>
       <c r="H18" t="n">
-        <v>1.708543539047241</v>
+        <v>1.631548762321472</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3618196249008179</v>
+        <v>0.04917049780488014</v>
       </c>
       <c r="J18" t="n">
-        <v>1.203701615333557</v>
+        <v>0.1822971105575562</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7827606201171875</v>
+        <v>0.1157338619232178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_17</t>
+          <t>model_1_5_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9309093617721506</v>
+        <v>0.9281233525338296</v>
       </c>
       <c r="C19" t="n">
-        <v>0.744068730572065</v>
+        <v>0.7553371097939864</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9748730370411555</v>
+        <v>0.937705249655965</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.153461402254675</v>
+        <v>0.9700793840212568</v>
       </c>
       <c r="F19" t="n">
-        <v>0.893088049775857</v>
+        <v>0.9674839200103197</v>
       </c>
       <c r="G19" t="n">
-        <v>0.289958655834198</v>
+        <v>0.3016509115695953</v>
       </c>
       <c r="H19" t="n">
-        <v>1.711413621902466</v>
+        <v>1.636061906814575</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3616974949836731</v>
+        <v>0.04992488026618958</v>
       </c>
       <c r="J19" t="n">
-        <v>1.218667507171631</v>
+        <v>0.1821631491184235</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7901825904846191</v>
+        <v>0.1160441190004349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_18</t>
+          <t>model_1_5_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9305206554794171</v>
+        <v>0.9268173500444234</v>
       </c>
       <c r="C20" t="n">
-        <v>0.743639789010522</v>
+        <v>0.7546406975324035</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9748775039412816</v>
+        <v>0.9368445781901318</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.191940294515686</v>
+        <v>0.9701013136041167</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8920864209243318</v>
+        <v>0.9674060213934793</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2915899157524109</v>
+        <v>0.3071319162845612</v>
       </c>
       <c r="H20" t="n">
-        <v>1.714281916618347</v>
+        <v>1.640718817710876</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3616331815719604</v>
+        <v>0.05061464384198189</v>
       </c>
       <c r="J20" t="n">
-        <v>1.233537912368774</v>
+        <v>0.1820296347141266</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7975856065750122</v>
+        <v>0.1163221225142479</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_19</t>
+          <t>model_1_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9301300545723696</v>
+        <v>0.9254880886420548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7432111931626213</v>
+        <v>0.7539221266723322</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9748780408584976</v>
+        <v>0.9360754087409746</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.230165328470529</v>
+        <v>0.9701239911882681</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8910876026270409</v>
+        <v>0.9673389841748176</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2932292222976685</v>
+        <v>0.3127105832099915</v>
       </c>
       <c r="H21" t="n">
-        <v>1.717148065567017</v>
+        <v>1.645523905754089</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3616254329681396</v>
+        <v>0.05123108252882957</v>
       </c>
       <c r="J21" t="n">
-        <v>1.248310089111328</v>
+        <v>0.1818915754556656</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8049678206443787</v>
+        <v>0.1165613681077957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_20</t>
+          <t>model_1_5_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9297376830531718</v>
+        <v>0.924135467166892</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7427830373666733</v>
+        <v>0.7531806055319963</v>
       </c>
       <c r="D22" t="n">
-        <v>0.97487484673988</v>
+        <v>0.9354085493424388</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.268139483061048</v>
+        <v>0.9701479104744496</v>
       </c>
       <c r="F22" t="n">
-        <v>0.890091706295942</v>
+        <v>0.9672845888364803</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2948759198188782</v>
+        <v>0.3183872103691101</v>
       </c>
       <c r="H22" t="n">
-        <v>1.720011115074158</v>
+        <v>1.650482416152954</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3616714477539062</v>
+        <v>0.05176552012562752</v>
       </c>
       <c r="J22" t="n">
-        <v>1.262985348701477</v>
+        <v>0.1817459464073181</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8123284578323364</v>
+        <v>0.1167555004358292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_21</t>
+          <t>model_1_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9293437422376758</v>
+        <v>0.9227594538765277</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7423554701820529</v>
+        <v>0.7524154198232242</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9748679446919145</v>
+        <v>0.93485534301925</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.305854137462287</v>
+        <v>0.970173922576213</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8890989860394487</v>
+        <v>0.9672445740375766</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2965291738510132</v>
+        <v>0.3241620361804962</v>
       </c>
       <c r="H23" t="n">
-        <v>1.722870230674744</v>
+        <v>1.655599236488342</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3617707788944244</v>
+        <v>0.05220887809991837</v>
       </c>
       <c r="J23" t="n">
-        <v>1.277560353279114</v>
+        <v>0.1815875768661499</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8196655511856079</v>
+        <v>0.1168982982635498</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_22</t>
+          <t>model_1_5_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9289484298662252</v>
+        <v>0.9213599767012925</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7419286159344476</v>
+        <v>0.7516258544393344</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9748575403903285</v>
+        <v>0.9344254184433803</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.343308218733285</v>
+        <v>0.9702022232252002</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8881096670357623</v>
+        <v>0.967220449311644</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2981882393360138</v>
+        <v>0.3300353288650513</v>
       </c>
       <c r="H24" t="n">
-        <v>1.725724577903748</v>
+        <v>1.660879135131836</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3619205355644226</v>
+        <v>0.05255343392491341</v>
       </c>
       <c r="J24" t="n">
-        <v>1.29203474521637</v>
+        <v>0.1814152747392654</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8269776105880737</v>
+        <v>0.1169843971729279</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_23</t>
+          <t>model_1_5_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9285518582933793</v>
+        <v>0.9199369396884466</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7415025430145921</v>
+        <v>0.7508113184420366</v>
       </c>
       <c r="D25" t="n">
-        <v>0.974843639925885</v>
+        <v>0.9341289867774427</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.380498097160026</v>
+        <v>0.9702334865925073</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8871238494446984</v>
+        <v>0.9672138153806705</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2998525500297546</v>
+        <v>0.3360075354576111</v>
       </c>
       <c r="H25" t="n">
-        <v>1.728573679924011</v>
+        <v>1.666325807571411</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3621206283569336</v>
+        <v>0.05279100313782692</v>
       </c>
       <c r="J25" t="n">
-        <v>1.306406855583191</v>
+        <v>0.1812249273061752</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8342637419700623</v>
+        <v>0.1170080751180649</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_5_24</t>
+          <t>model_1_5_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9281543231028536</v>
+        <v>0.9184899806469312</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7410773655002774</v>
+        <v>0.7499710067706515</v>
       </c>
       <c r="D26" t="n">
-        <v>0.974826487630693</v>
+        <v>0.9339745080806402</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.417417745046489</v>
+        <v>0.9702678656698156</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8861419324475635</v>
+        <v>0.9672257931281351</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3015209436416626</v>
+        <v>0.3420801162719727</v>
       </c>
       <c r="H26" t="n">
-        <v>1.731416821479797</v>
+        <v>1.671945095062256</v>
       </c>
       <c r="I26" t="n">
-        <v>0.362367570400238</v>
+        <v>0.0529148057103157</v>
       </c>
       <c r="J26" t="n">
-        <v>1.320674657821655</v>
+        <v>0.1810156404972076</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8415210843086243</v>
+        <v>0.1169653385877609</v>
       </c>
     </row>
   </sheetData>
